--- a/Data/Scenarios.xlsx
+++ b/Data/Scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sahamfamilyoffice-my.sharepoint.com/personal/olivier_couvreur_sahamfamilyoffice_com/Documents/Documents/Python/Input Data for LTCMA/Demo Actual Portfolio - Sep 2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sahamfamilyoffice-my.sharepoint.com/personal/olivier_couvreur_sahamfamilyoffice_com/Documents/Documents/Python/Input Data for LTCMA/OCT 2025 - Current with Approved OCIO changes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{C4A5B2BF-51B4-41A5-AA0D-90AE8A2F2294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2C53E22-A859-427B-9916-3CB0796DB0DF}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{C4A5B2BF-51B4-41A5-AA0D-90AE8A2F2294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45097B45-7A4A-4FAD-88EA-D7F3CBCB8D04}"/>
   <bookViews>
-    <workbookView xWindow="-12765" yWindow="-15450" windowWidth="24240" windowHeight="14730" xr2:uid="{B44ACF34-84E6-4DC6-8E27-7E5FE63E69F2}"/>
+    <workbookView xWindow="-11625" yWindow="-14775" windowWidth="25275" windowHeight="13515" xr2:uid="{B44ACF34-84E6-4DC6-8E27-7E5FE63E69F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Scenario</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Choc Monetaire US 1979</t>
+  </si>
+  <si>
+    <t>Chinese Domestic Equity</t>
+  </si>
+  <si>
+    <t>Hong Kong Equity</t>
   </si>
 </sst>
 </file>
@@ -478,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7296E3A1-17F2-4575-A7ED-3B17434635DB}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +498,7 @@
     <col min="8" max="8" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,8 +523,14 @@
       <c r="H1" t="s">
         <v>9</v>
       </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -543,8 +555,14 @@
       <c r="H2">
         <v>-8.8735117533326524E-2</v>
       </c>
+      <c r="I2">
+        <v>-0.20532831707423782</v>
+      </c>
+      <c r="J2">
+        <v>-0.20532831707423782</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -569,8 +587,14 @@
       <c r="H3">
         <v>4.883620689655177E-2</v>
       </c>
+      <c r="I3">
+        <v>-0.48970981536305258</v>
+      </c>
+      <c r="J3">
+        <v>-0.48970981536305258</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -595,8 +619,14 @@
       <c r="H4">
         <v>-0.19515878100118977</v>
       </c>
+      <c r="I4">
+        <v>-0.59066781585282491</v>
+      </c>
+      <c r="J4">
+        <v>-0.59066781585282491</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -621,8 +651,14 @@
       <c r="H5">
         <v>-1.9912694144813892E-2</v>
       </c>
+      <c r="I5">
+        <v>-0.34102902645985778</v>
+      </c>
+      <c r="J5">
+        <v>-0.34102902645985778</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -647,8 +683,14 @@
       <c r="H6">
         <v>-1.9612952778045312E-3</v>
       </c>
+      <c r="I6">
+        <v>-0.265932178785099</v>
+      </c>
+      <c r="J6">
+        <v>-0.265932178785099</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -673,8 +715,14 @@
       <c r="H7">
         <v>-1.4556374431212715E-3</v>
       </c>
+      <c r="I7">
+        <v>-0.16786465884711477</v>
+      </c>
+      <c r="J7">
+        <v>-0.16786465884711477</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -698,6 +746,12 @@
       </c>
       <c r="H8">
         <v>0</v>
+      </c>
+      <c r="I8">
+        <v>-0.1</v>
+      </c>
+      <c r="J8">
+        <v>-0.1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Scenarios.xlsx
+++ b/Data/Scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sahamfamilyoffice-my.sharepoint.com/personal/olivier_couvreur_sahamfamilyoffice_com/Documents/Documents/Python/Input Data for LTCMA/OCT 2025 - Current with Approved OCIO changes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{C4A5B2BF-51B4-41A5-AA0D-90AE8A2F2294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45097B45-7A4A-4FAD-88EA-D7F3CBCB8D04}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{C4A5B2BF-51B4-41A5-AA0D-90AE8A2F2294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2360701C-1C63-4B53-9738-3D4EB09490BA}"/>
   <bookViews>
-    <workbookView xWindow="-11625" yWindow="-14775" windowWidth="25275" windowHeight="13515" xr2:uid="{B44ACF34-84E6-4DC6-8E27-7E5FE63E69F2}"/>
+    <workbookView xWindow="15435" yWindow="-14730" windowWidth="27195" windowHeight="13515" xr2:uid="{B44ACF34-84E6-4DC6-8E27-7E5FE63E69F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="1" r:id="rId1"/>
@@ -62,31 +62,31 @@
     <t>COVID-19 Crash 2020</t>
   </si>
   <si>
+    <t>Hedge Funds</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Post Pandemic Inflation / Ukraine War</t>
+  </si>
+  <si>
+    <t>Liberation Day 2025</t>
+  </si>
+  <si>
+    <t>Choc Monetaire US 1979</t>
+  </si>
+  <si>
+    <t>Chinese Domestic Equity</t>
+  </si>
+  <si>
+    <t>Hong Kong Equity</t>
+  </si>
+  <si>
+    <t>Asian Financial Crisis 1997-1998</t>
+  </si>
+  <si>
     <t>Tech Bubble Burst</t>
-  </si>
-  <si>
-    <t>Hedge Funds</t>
-  </si>
-  <si>
-    <t>Real Estate</t>
-  </si>
-  <si>
-    <t>Post Pandemic Inflation / Ukraine War</t>
-  </si>
-  <si>
-    <t>LTCM Crisis</t>
-  </si>
-  <si>
-    <t>Liberation Day 2025</t>
-  </si>
-  <si>
-    <t>Choc Monetaire US 1979</t>
-  </si>
-  <si>
-    <t>Chinese Domestic Equity</t>
-  </si>
-  <si>
-    <t>Hong Kong Equity</t>
   </si>
 </sst>
 </file>
@@ -487,15 +487,16 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="2" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -512,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -521,50 +522,50 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>1.1898933326231598E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C2">
-        <v>4.6172236766321539E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D2">
-        <v>-0.20532831707423782</v>
+        <v>0.05</v>
       </c>
       <c r="E2">
-        <v>-0.12319699024454268</v>
+        <v>0.1</v>
       </c>
       <c r="F2">
-        <v>2.0266846816414663E-3</v>
+        <v>-0.12</v>
       </c>
       <c r="G2">
-        <v>-0.24639398048908537</v>
+        <v>0.05</v>
       </c>
       <c r="H2">
-        <v>-8.8735117533326524E-2</v>
+        <v>0.16</v>
       </c>
       <c r="I2">
-        <v>-0.20532831707423782</v>
+        <v>0.25</v>
       </c>
       <c r="J2">
-        <v>-0.20532831707423782</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>7.7074339958902005E-2</v>
@@ -588,10 +589,10 @@
         <v>4.883620689655177E-2</v>
       </c>
       <c r="I3">
-        <v>-0.48970981536305258</v>
+        <v>-0.35</v>
       </c>
       <c r="J3">
-        <v>-0.48970981536305258</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -620,10 +621,10 @@
         <v>-0.19515878100118977</v>
       </c>
       <c r="I4">
-        <v>-0.59066781585282491</v>
+        <v>-0.63</v>
       </c>
       <c r="J4">
-        <v>-0.59066781585282491</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -652,15 +653,15 @@
         <v>-1.9912694144813892E-2</v>
       </c>
       <c r="I5">
-        <v>-0.34102902645985778</v>
+        <v>-0.05</v>
       </c>
       <c r="J5">
-        <v>-0.34102902645985778</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>9.0923656436492362E-3</v>
@@ -684,15 +685,15 @@
         <v>-1.9612952778045312E-3</v>
       </c>
       <c r="I6">
-        <v>-0.265932178785099</v>
+        <v>-0.17</v>
       </c>
       <c r="J6">
-        <v>-0.265932178785099</v>
+        <v>-0.28000000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>5.910117400385051E-3</v>
@@ -716,15 +717,15 @@
         <v>-1.4556374431212715E-3</v>
       </c>
       <c r="I7">
-        <v>-0.16786465884711477</v>
+        <v>-0.08</v>
       </c>
       <c r="J7">
-        <v>-0.16786465884711477</v>
+        <v>-0.14000000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>0.05</v>

--- a/Data/Scenarios.xlsx
+++ b/Data/Scenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sahamfamilyoffice-my.sharepoint.com/personal/olivier_couvreur_sahamfamilyoffice_com/Documents/Documents/Python/Input Data for LTCMA/OCT 2025 - Current with Approved OCIO changes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sahamfamilyoffice-my.sharepoint.com/personal/olivier_couvreur_sahamfamilyoffice_com/Documents/Documents/Python/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="8_{C4A5B2BF-51B4-41A5-AA0D-90AE8A2F2294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2360701C-1C63-4B53-9738-3D4EB09490BA}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{C4A5B2BF-51B4-41A5-AA0D-90AE8A2F2294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DC5EE3E-A032-4B42-AB3D-6D4512C521AD}"/>
   <bookViews>
-    <workbookView xWindow="15435" yWindow="-14730" windowWidth="27195" windowHeight="13515" xr2:uid="{B44ACF34-84E6-4DC6-8E27-7E5FE63E69F2}"/>
+    <workbookView xWindow="-13140" yWindow="-15570" windowWidth="27195" windowHeight="14835" xr2:uid="{B44ACF34-84E6-4DC6-8E27-7E5FE63E69F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Value" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <t>Asian Financial Crisis 1997-1998</t>
   </si>
   <si>
-    <t>Tech Bubble Burst</t>
+    <t>Tech Bubble Burst 2000-2002</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,226 +533,226 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0.05</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="D2">
-        <v>0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="E2">
-        <v>0.1</v>
+        <v>-0.15</v>
       </c>
       <c r="F2">
-        <v>-0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="H2">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.25</v>
+        <v>-0.1</v>
       </c>
       <c r="J2">
-        <v>-0.6</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>7.7074339958902005E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C3">
-        <v>0.19559438584341327</v>
+        <v>0.1</v>
       </c>
       <c r="D3">
-        <v>-0.48970981536305258</v>
+        <v>0.05</v>
       </c>
       <c r="E3">
-        <v>-0.29382588921783154</v>
+        <v>0.1</v>
       </c>
       <c r="F3">
-        <v>0.16407942238267137</v>
+        <v>-0.12</v>
       </c>
       <c r="G3">
-        <v>-0.58765177843566307</v>
+        <v>0.05</v>
       </c>
       <c r="H3">
-        <v>4.883620689655177E-2</v>
+        <v>0.16</v>
       </c>
       <c r="I3">
-        <v>-0.35</v>
+        <v>0.25</v>
       </c>
       <c r="J3">
-        <v>-0.49</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>2.7813500275262637E-2</v>
+        <v>7.7074339958902005E-2</v>
       </c>
       <c r="C4">
-        <v>6.3091198684805505E-2</v>
+        <v>0.19559438584341327</v>
       </c>
       <c r="D4">
-        <v>-0.59066781585282491</v>
+        <v>-0.48970981536305258</v>
       </c>
       <c r="E4">
-        <v>-0.35440068951169496</v>
+        <v>-0.29382588921783154</v>
       </c>
       <c r="F4">
-        <v>0.1575677710843375</v>
+        <v>0.16407942238267137</v>
       </c>
       <c r="G4">
-        <v>-0.70880137902338991</v>
+        <v>-0.58765177843566307</v>
       </c>
       <c r="H4">
-        <v>-0.19515878100118977</v>
+        <v>4.883620689655177E-2</v>
       </c>
       <c r="I4">
-        <v>-0.63</v>
+        <v>-0.35</v>
       </c>
       <c r="J4">
-        <v>-0.6</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>1.0197486250247412E-3</v>
+        <v>2.7813500275262637E-2</v>
       </c>
       <c r="C5">
-        <v>-1.4999467496045193E-2</v>
+        <v>6.3091198684805505E-2</v>
       </c>
       <c r="D5">
-        <v>-0.34102902645985778</v>
+        <v>-0.59066781585282491</v>
       </c>
       <c r="E5">
-        <v>-0.20461741587591467</v>
+        <v>-0.35440068951169496</v>
       </c>
       <c r="F5">
-        <v>-3.6278463733945499E-2</v>
+        <v>0.1575677710843375</v>
       </c>
       <c r="G5">
-        <v>-0.40923483175182934</v>
+        <v>-0.70880137902338991</v>
       </c>
       <c r="H5">
-        <v>-1.9912694144813892E-2</v>
+        <v>-0.19515878100118977</v>
       </c>
       <c r="I5">
-        <v>-0.05</v>
+        <v>-0.63</v>
       </c>
       <c r="J5">
-        <v>-0.1</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>9.0923656436492362E-3</v>
+        <v>1.0197486250247412E-3</v>
       </c>
       <c r="C6">
-        <v>-0.13469677814642333</v>
+        <v>-1.4999467496045193E-2</v>
       </c>
       <c r="D6">
-        <v>-0.265932178785099</v>
+        <v>-0.34102902645985778</v>
       </c>
       <c r="E6">
-        <v>-0.15955930727105941</v>
+        <v>-0.20461741587591467</v>
       </c>
       <c r="F6">
-        <v>-9.8515497374162653E-2</v>
+        <v>-3.6278463733945499E-2</v>
       </c>
       <c r="G6">
-        <v>-0.31911861454211882</v>
+        <v>-0.40923483175182934</v>
       </c>
       <c r="H6">
-        <v>-1.9612952778045312E-3</v>
+        <v>-1.9912694144813892E-2</v>
       </c>
       <c r="I6">
-        <v>-0.17</v>
+        <v>-0.05</v>
       </c>
       <c r="J6">
-        <v>-0.28000000000000003</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>5.910117400385051E-3</v>
+        <v>9.0923656436492362E-3</v>
       </c>
       <c r="C7">
-        <v>6.8770997058480443E-3</v>
+        <v>-0.13469677814642333</v>
       </c>
       <c r="D7">
-        <v>-0.16786465884711477</v>
+        <v>-0.265932178785099</v>
       </c>
       <c r="E7">
-        <v>-0.10071879530826885</v>
+        <v>-0.15955930727105941</v>
       </c>
       <c r="F7">
-        <v>1.6093214623878582E-2</v>
+        <v>-9.8515497374162653E-2</v>
       </c>
       <c r="G7">
-        <v>-0.20143759061653771</v>
+        <v>-0.31911861454211882</v>
       </c>
       <c r="H7">
-        <v>-1.4556374431212715E-3</v>
+        <v>-1.9612952778045312E-3</v>
       </c>
       <c r="I7">
-        <v>-0.08</v>
+        <v>-0.17</v>
       </c>
       <c r="J7">
-        <v>-0.14000000000000001</v>
+        <v>-0.28000000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05</v>
+        <v>5.910117400385051E-3</v>
       </c>
       <c r="C8">
-        <v>-0.3</v>
+        <v>6.8770997058480443E-3</v>
       </c>
       <c r="D8">
-        <v>-0.1</v>
+        <v>-0.16786465884711477</v>
       </c>
       <c r="E8">
-        <v>-0.15</v>
+        <v>-0.10071879530826885</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1.6093214623878582E-2</v>
       </c>
       <c r="G8">
-        <v>-0.1</v>
+        <v>-0.20143759061653771</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>-1.4556374431212715E-3</v>
       </c>
       <c r="I8">
-        <v>-0.1</v>
+        <v>-0.08</v>
       </c>
       <c r="J8">
-        <v>-0.1</v>
+        <v>-0.14000000000000001</v>
       </c>
     </row>
   </sheetData>
